--- a/Proyecto 2/Cronograma de actividades polo 360.xlsx
+++ b/Proyecto 2/Cronograma de actividades polo 360.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROGRAMADOR WEB INA 2017\PLANIFICACION WEB\1-Planificacion de desarrollo Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoel B\Desktop\Proyecto-2\Proyecto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Nombre de las tareas</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Analista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurante el sazón de la abuela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinar el diseño que desa el cliente </t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +187,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,15 +248,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -232,9 +261,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +268,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -259,6 +323,107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1877785</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2217964" y="4572000"/>
+          <a:ext cx="4014107" cy="2598964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CR" sz="1100"/>
+            <a:t>azul YOEL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CR" sz="1100"/>
+            <a:t>AMARILLO SANDRA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CR" sz="1100"/>
+            <a:t>VERDE ANADELIS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CR" sz="1100"/>
+            <a:t>ROJO ANGELICA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-CR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CR" sz="1100"/>
+            <a:t>ESTE CUADRO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CR" sz="1100" baseline="0"/>
+            <a:t> LO ELIMANAN UNA VES QUE YA TIENEN CLARO DONDE TIENEN QUE TRABAJAR </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,373 +689,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="46.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16">
+        <v>10</v>
+      </c>
+      <c r="D14" s="16">
+        <v>9</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="16">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16">
+        <v>11</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="14">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14">
+        <v>13</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14">
+        <v>25</v>
+      </c>
+      <c r="D20" s="14">
+        <v>15</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>17</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="14">
+        <v>17</v>
+      </c>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>21</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="19">
+        <v>3</v>
+      </c>
+      <c r="D24" s="19">
+        <v>17</v>
+      </c>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>22</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="19">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19">
+        <v>17</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="D26" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4">
-        <v>17</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3</v>
-      </c>
-      <c r="D21" s="4">
-        <v>17</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4">
-        <v>17</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4">
-        <v>17</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>18</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>